--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E257223F-9107-4B62-B37D-153A8C1C9EFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F6BE5-B5F7-4E1F-A03B-3B2FAD73CB8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="2330" windowWidth="7210" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,78 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/7458500.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/735216.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/19024412.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/37024025.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/18004418.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/28049320.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/8435089.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/7458272.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/19058734.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/156772.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/91138280.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/85139014.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/18007344.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/92020288.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/28054109.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/92039023.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/19061518.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res/icons/142173.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jordan Henderson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/28005568.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Christian Eriksen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,18 +390,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/27010680.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kyle Walker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/28009441.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jesse Lingard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/28047560.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Harry Maguire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/28049740.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alexander-Arnold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,18 +426,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/28104124.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Luke Shaw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/29076105.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Matthijs de Ligt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/37055843.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alessio Romagnoli</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/43093395.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gianluigi Donnarumma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/43252073.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Theo Hernández</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/67211695.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Federico Valverde</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,8 +486,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/icons/78074594.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>res\\icons\\7458500.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res\\icons\\735216.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\28049320.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\19024412.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\18004418.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\37024025.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\8435089.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\7458272.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\19058734.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\156772.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\91138280.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\85139014.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\18007344.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\92020288.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\28054109.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\92039023.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\19061518.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\142173.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\28005568.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\27010680.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\28009441.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\28047560.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\28049740.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\28104124.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\29076105.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\37055843.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\43093395.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\43252073.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\67211695.png</t>
+  </si>
+  <si>
+    <t>res\\icons\\78074594.png</t>
   </si>
 </sst>
 </file>
@@ -930,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1015,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1056,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1097,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1138,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1179,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1220,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1261,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1302,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1343,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1384,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1425,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1466,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1507,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1548,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1589,7 +1560,7 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1630,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1671,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1712,12 +1683,12 @@
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1729,7 +1700,7 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -1753,21 +1724,21 @@
         <v>8</v>
       </c>
       <c r="M20" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
@@ -1794,12 +1765,12 @@
         <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1835,24 +1806,24 @@
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -1876,24 +1847,24 @@
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -1917,12 +1888,12 @@
         <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1931,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -1958,18 +1929,18 @@
         <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>47</v>
@@ -1999,12 +1970,12 @@
         <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -2013,10 +1984,10 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -2040,15 +2011,15 @@
         <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
         <v>82</v>
@@ -2081,24 +2052,24 @@
         <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -2122,12 +2093,12 @@
         <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -2139,7 +2110,7 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -2163,24 +2134,24 @@
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
